--- a/marks.xlsx
+++ b/marks.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>CCAE ICT UNIT</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>MBITHI DENIS NZIOKA</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,10 +446,10 @@
     <col min="1" max="1" width="3.5546875" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -454,7 +457,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -470,8 +473,11 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -488,7 +494,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -505,7 +511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -522,7 +528,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>

--- a/marks.xlsx
+++ b/marks.xlsx
@@ -1,97 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Desktop\excelwithpy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11316"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11316" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Manuel" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>CCAE ICT UNIT</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>Endterm</t>
-  </si>
-  <si>
-    <t>Reg.no</t>
-  </si>
-  <si>
-    <t>ALEX MUSAU</t>
-  </si>
-  <si>
-    <t>SHADRACK MUTHAMA</t>
-  </si>
-  <si>
-    <t>MUTISO LAZARUS</t>
-  </si>
-  <si>
-    <t>sn</t>
-  </si>
-  <si>
-    <t>MBITHI DENIS NZIOKA</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -109,32 +57,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -434,114 +442,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col width="3.5546875" customWidth="1" style="5" min="1" max="1"/>
+    <col width="14.33203125" customWidth="1" style="3" min="2" max="2"/>
+    <col width="14.88671875" customWidth="1" style="5" min="3" max="3"/>
+    <col width="14.44140625" customWidth="1" style="5" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+    <row r="1">
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>CCAE ICT UNIT</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sn</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Reg.no</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Cat</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Endterm</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Kithungo Raha</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5629</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" customHeight="1" s="5">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>SHADRACK MUTHAMA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6148</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" customHeight="1" s="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>MUTISO LAZARUS</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5749</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" customHeight="1" s="5">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>5629</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>6148</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>5749</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>MBITHI DENIS NZIOKA</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>6089</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>42</v>
       </c>
     </row>
@@ -550,6 +581,78 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>